--- a/z_db/Data/Guru/guru.xlsx
+++ b/z_db/Data/Guru/guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\z_db\Data\Guru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4248F2-DA84-4D13-92D9-3CEA4AD27972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C90253-5E01-472D-83B8-BBFCC0719D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73EE4F40-E832-4368-A247-F09EA9FF018C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <r>
       <t xml:space="preserve">SILAHKAN MASUKKAN
@@ -601,6 +601,23 @@
   </si>
   <si>
     <t>Muchammad Iqbal Roni Saputra</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SILAHKAN MASUKKAN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KODE GURU</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -985,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAF458E-26DF-4951-8091-B8ED6C5DDDFE}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,15 +1015,18 @@
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1022,7 +1042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1050,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1082,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1114,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1102,7 +1122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1110,7 +1130,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/z_db/Data/Guru/guru.xlsx
+++ b/z_db/Data/Guru/guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\z_db\Data\Guru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD7CCC6-DB08-49DD-8086-C5D359D764B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FBD873-695F-4065-929A-E5BC6A54343B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB8EC23C-913C-423A-A975-EF6DBF0E2D76}"/>
   </bookViews>
@@ -328,10 +328,6 @@
     <t>Hendra Kurniawan, S.Pd</t>
   </si>
   <si>
-    <t>Muchammad Iqbal Roni_x000D_
-Saputra</t>
-  </si>
-  <si>
     <t>Abdur Rosid, M.Pd</t>
   </si>
   <si>
@@ -927,6 +923,9 @@
   </si>
   <si>
     <t>[91]</t>
+  </si>
+  <si>
+    <t>Muchammad Iqbal Roni Saputra</t>
   </si>
 </sst>
 </file>
@@ -1355,14 +1354,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EC24D4-2F95-4EB9-81CE-F112F4F100E1}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1386,7 +1385,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1397,992 +1396,992 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.4" customHeight="1">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/z_db/Data/Guru/guru.xlsx
+++ b/z_db/Data/Guru/guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\z_db\Data\Guru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FBD873-695F-4065-929A-E5BC6A54343B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5751B21-4C22-4500-85C1-60795AC19350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB8EC23C-913C-423A-A975-EF6DBF0E2D76}"/>
   </bookViews>
@@ -1354,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EC24D4-2F95-4EB9-81CE-F112F4F100E1}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
